--- a/anders-test/myc3/线性预测的计算过程.xlsx
+++ b/anders-test/myc3/线性预测的计算过程.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\book_DeepLearning_in_PyTorch_Source\anders-test\myc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5D345B-27FE-4802-9BA0-1D1453F45645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495106ED-73C8-4499-B713-A62F72C08FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{46CC0616-36F9-46C5-826A-71D3B586CD12}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{46CC0616-36F9-46C5-826A-71D3B586CD12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -40,12 +41,61 @@
     <t>weights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>print(weights)</t>
+  </si>
+  <si>
+    <t>print(biases)</t>
+  </si>
+  <si>
+    <t>print(weights2)</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensor([[-6.8246]], dtype=torch.float64, requires_grad=True)</t>
+  </si>
+  <si>
+    <t>tensor([7.6002], dtype=torch.float64, requires_grad=True)</t>
+  </si>
+  <si>
+    <t>tensor([[13.1191]], dtype=torch.float64, requires_grad=True)</t>
+  </si>
+  <si>
+    <t>loss: tensor(150.7672, dtype=torch.float64, grad_fn=&lt;MeanBackward0&gt;)</t>
+  </si>
+  <si>
+    <t>tensor([[3.9276]], dtype=torch.float64, requires_grad=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensor([-1.1799], dtype=torch.float64, requires_grad=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensor([[9.6974]], dtype=torch.float64, requires_grad=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +110,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +140,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,16 +463,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45ECCAE-CF3B-4537-B0EA-A4CC3BDB7684}">
   <dimension ref="B1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -427,7 +486,7 @@
         <v>-0.74750000000000005</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>1</v>
       </c>
@@ -444,7 +503,7 @@
         <v>12.5185</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>2</v>
       </c>
@@ -461,7 +520,7 @@
         <v>25.784500000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>3</v>
       </c>
@@ -478,7 +537,7 @@
         <v>39.0505</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>4</v>
       </c>
@@ -495,7 +554,7 @@
         <v>52.316500000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>5</v>
       </c>
@@ -508,11 +567,11 @@
         <v>13.265999999999998</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F6:F9" si="1">12.5185+(13.266*(B7-1))</f>
+        <f t="shared" ref="F7:F9" si="1">12.5185+(13.266*(B7-1))</f>
         <v>65.582499999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>6</v>
       </c>
@@ -529,7 +588,7 @@
         <v>78.848500000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>7</v>
       </c>
@@ -546,7 +605,7 @@
         <v>92.114500000000007</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>8</v>
       </c>
@@ -555,7 +614,7 @@
         <v>105.3805</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>9</v>
       </c>
@@ -564,7 +623,7 @@
         <v>118.6465</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>10</v>
       </c>
@@ -573,16 +632,16 @@
         <v>131.91249999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C5:C68" si="2">B13*C10+E10</f>
+        <f t="shared" ref="C13:C68" si="2">B13*C10+E10</f>
         <v>1159.1855</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>12</v>
       </c>
@@ -591,7 +650,7 @@
         <v>1423.758</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>13</v>
       </c>
@@ -600,7 +659,7 @@
         <v>1714.8625</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>14</v>
       </c>
@@ -609,7 +668,7 @@
         <v>16228.597000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -618,7 +677,7 @@
         <v>21356.37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -627,7 +686,7 @@
         <v>27437.8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -636,7 +695,7 @@
         <v>275886.14900000003</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -645,7 +704,7 @@
         <v>384414.66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -654,7 +713,7 @@
         <v>521318.2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -663,7 +722,7 @@
         <v>5517722.9800000004</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>21</v>
       </c>
@@ -672,7 +731,7 @@
         <v>8072707.8599999994</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>22</v>
       </c>
@@ -681,7 +740,7 @@
         <v>11469000.4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>23</v>
       </c>
@@ -690,7 +749,7 @@
         <v>126907628.54000001</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>24</v>
       </c>
@@ -699,7 +758,7 @@
         <v>193744988.63999999</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>25</v>
       </c>
@@ -708,7 +767,7 @@
         <v>286725010</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>26</v>
       </c>
@@ -717,7 +776,7 @@
         <v>3299598342.04</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>27</v>
       </c>
@@ -726,7 +785,7 @@
         <v>5231114693.2799997</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>28</v>
       </c>
@@ -735,7 +794,7 @@
         <v>8028300280</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>29</v>
       </c>
@@ -744,7 +803,7 @@
         <v>95688351919.160004</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>30</v>
       </c>
@@ -753,7 +812,7 @@
         <v>156933440798.39999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>31</v>
       </c>
@@ -762,7 +821,7 @@
         <v>248877308680</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>32</v>
       </c>
@@ -771,7 +830,7 @@
         <v>3062027261413.1201</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>33</v>
       </c>
@@ -780,7 +839,7 @@
         <v>5178803546347.2002</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>34</v>
       </c>
@@ -789,7 +848,7 @@
         <v>8461828495120</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>35</v>
       </c>
@@ -798,7 +857,7 @@
         <v>107170954149459.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>36</v>
       </c>
@@ -807,7 +866,7 @@
         <v>186436927668499.22</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>37</v>
       </c>
@@ -816,7 +875,7 @@
         <v>313087654319440</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>38</v>
       </c>
@@ -825,7 +884,7 @@
         <v>4072496257679449.5</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>39</v>
       </c>
@@ -834,7 +893,7 @@
         <v>7271040179071470</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>40</v>
       </c>
@@ -843,7 +902,7 @@
         <v>1.25235061727776E+16</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>41</v>
       </c>
@@ -852,7 +911,7 @@
         <v>1.6697234656485744E+17</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>42</v>
       </c>
@@ -861,7 +920,7 @@
         <v>3.0538368752100173E+17</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45">
         <v>43</v>
       </c>
@@ -870,7 +929,7 @@
         <v>5.385107654294368E+17</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46">
         <v>44</v>
       </c>
@@ -879,7 +938,7 @@
         <v>7.3467832488537272E+18</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>45</v>
       </c>
@@ -888,7 +947,7 @@
         <v>1.3742265938445079E+19</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48">
         <v>46</v>
       </c>
@@ -897,7 +956,7 @@
         <v>2.4771495209754092E+19</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>47</v>
       </c>
@@ -906,7 +965,7 @@
         <v>3.4529881269612518E+20</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>48</v>
       </c>
@@ -915,7 +974,7 @@
         <v>6.5962876504536383E+20</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>49</v>
       </c>
@@ -924,7 +983,7 @@
         <v>1.2138032652779504E+21</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>50</v>
       </c>
@@ -933,7 +992,7 @@
         <v>1.7264940634806258E+22</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>51</v>
       </c>
@@ -942,7 +1001,7 @@
         <v>3.3641067017313555E+22</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>52</v>
       </c>
@@ -951,7 +1010,7 @@
         <v>6.3117769794453424E+22</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>53</v>
       </c>
@@ -960,7 +1019,7 @@
         <v>9.1504185364473166E+23</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>54</v>
       </c>
@@ -969,7 +1028,7 @@
         <v>1.8166176189349319E+24</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>55</v>
       </c>
@@ -978,7 +1037,7 @@
         <v>3.4714773386949383E+24</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>56</v>
       </c>
@@ -987,7 +1046,7 @@
         <v>5.1242343804104976E+25</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>57</v>
       </c>
@@ -996,7 +1055,7 @@
         <v>1.0354720427929112E+26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>58</v>
       </c>
@@ -1005,7 +1064,7 @@
         <v>2.0134568564430641E+26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>59</v>
       </c>
@@ -1014,7 +1073,7 @@
         <v>3.0232982844421937E+27</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>60</v>
       </c>
@@ -1023,7 +1082,7 @@
         <v>6.2128322567574679E+27</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>61</v>
       </c>
@@ -1032,7 +1091,7 @@
         <v>1.2282086824302692E+28</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>62</v>
       </c>
@@ -1041,7 +1100,7 @@
         <v>1.87444493635416E+29</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>63</v>
       </c>
@@ -1050,7 +1109,7 @@
         <v>3.9140843217572048E+29</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>64</v>
       </c>
@@ -1059,7 +1118,7 @@
         <v>7.8605355675537228E+29</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>65</v>
       </c>
@@ -1068,7 +1127,7 @@
         <v>1.218389208630204E+31</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>66</v>
       </c>
@@ -1077,7 +1136,7 @@
         <v>2.5832956523597554E+31</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>67</v>
       </c>
@@ -1086,7 +1145,7 @@
         <v>5.2665588302609939E+31</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>68</v>
       </c>
@@ -1095,7 +1154,7 @@
         <v>8.2850466186853874E+32</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>69</v>
       </c>
@@ -1104,7 +1163,7 @@
         <v>1.7824740001282312E+33</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>70</v>
       </c>
@@ -1113,7 +1172,7 @@
         <v>3.6865911811826957E+33</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>71</v>
       </c>
@@ -1122,7 +1181,7 @@
         <v>5.8823830992666255E+34</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>72</v>
       </c>
@@ -1131,7 +1190,7 @@
         <v>1.2833812800923265E+35</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>73</v>
       </c>
@@ -1140,7 +1199,7 @@
         <v>2.691211562263368E+35</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>74</v>
       </c>
@@ -1149,7 +1208,7 @@
         <v>4.3529634934573028E+36</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>75</v>
       </c>
@@ -1158,7 +1217,7 @@
         <v>9.6253596006924484E+36</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>76</v>
       </c>
@@ -1167,7 +1226,7 @@
         <v>2.0453207873201596E+37</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3">
       <c r="B79">
         <v>77</v>
       </c>
@@ -1176,7 +1235,7 @@
         <v>3.3517818899621231E+38</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3">
       <c r="B80">
         <v>78</v>
       </c>
@@ -1185,7 +1244,7 @@
         <v>7.5077804885401099E+38</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3">
       <c r="B81">
         <v>79</v>
       </c>
@@ -1194,7 +1253,7 @@
         <v>1.615803421982926E+39</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3">
       <c r="B82">
         <v>80</v>
       </c>
@@ -1203,7 +1262,7 @@
         <v>2.6814255119696987E+40</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83">
         <v>81</v>
       </c>
@@ -1212,7 +1271,7 @@
         <v>6.0813021957174891E+40</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3">
       <c r="B84">
         <v>82</v>
       </c>
@@ -1221,7 +1280,7 @@
         <v>1.3249588060259993E+41</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3">
       <c r="B85">
         <v>83</v>
       </c>
@@ -1230,7 +1289,7 @@
         <v>2.22558317493485E+42</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3">
       <c r="B86">
         <v>84</v>
       </c>
@@ -1239,7 +1298,7 @@
         <v>5.1082938444026909E+42</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3">
       <c r="B87">
         <v>85</v>
       </c>
@@ -1248,7 +1307,7 @@
         <v>1.1262149851220994E+43</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3">
       <c r="B88">
         <v>86</v>
       </c>
@@ -1257,7 +1316,7 @@
         <v>1.9140015304439712E+44</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3">
       <c r="B89">
         <v>87</v>
       </c>
@@ -1266,7 +1325,7 @@
         <v>4.4442156446303408E+44</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3">
       <c r="B90">
         <v>88</v>
       </c>
@@ -1275,7 +1334,7 @@
         <v>9.9106918690744743E+44</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="B91">
         <v>89</v>
       </c>
@@ -1284,7 +1343,7 @@
         <v>1.7034613620951343E+46</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92">
         <v>90</v>
       </c>
@@ -1293,7 +1352,7 @@
         <v>3.9997940801673069E+46</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93">
         <v>91</v>
       </c>
@@ -1302,7 +1361,7 @@
         <v>9.0187296008577714E+46</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3">
       <c r="B94">
         <v>92</v>
       </c>
@@ -1311,7 +1370,7 @@
         <v>1.5671844531275235E+48</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3">
       <c r="B95">
         <v>93</v>
       </c>
@@ -1320,7 +1379,7 @@
         <v>3.7198084945555952E+48</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3">
       <c r="B96">
         <v>94</v>
       </c>
@@ -1329,7 +1388,7 @@
         <v>8.4776058248063057E+48</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3">
       <c r="B97">
         <v>95</v>
       </c>
@@ -1338,7 +1397,7 @@
         <v>1.4888252304711473E+50</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3">
       <c r="B98">
         <v>96</v>
       </c>
@@ -1347,7 +1406,7 @@
         <v>3.5710161547733714E+50</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3">
       <c r="B99">
         <v>97</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>8.2232776500621163E+50</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3">
       <c r="B100">
         <v>98</v>
       </c>
@@ -1365,7 +1424,7 @@
         <v>1.4590487258617244E+52</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3">
       <c r="B101">
         <v>99</v>
       </c>
@@ -1374,7 +1433,7 @@
         <v>3.5353059932256375E+52</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3">
       <c r="B102">
         <v>100</v>
       </c>
@@ -1383,7 +1442,7 @@
         <v>8.2232776500621166E+52</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3">
       <c r="B103">
         <v>101</v>
       </c>
@@ -1392,7 +1451,7 @@
         <v>1.4736392131203417E+54</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3">
       <c r="B104">
         <v>102</v>
       </c>
@@ -1401,7 +1460,7 @@
         <v>3.6060121130901501E+54</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3">
       <c r="B105">
         <v>103</v>
       </c>
@@ -1410,7 +1469,7 @@
         <v>8.4699759795639802E+54</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3">
       <c r="B106">
         <v>104</v>
       </c>
@@ -1419,7 +1478,7 @@
         <v>1.5325847816451553E+56</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3">
       <c r="B107">
         <v>105</v>
       </c>
@@ -1428,7 +1487,7 @@
         <v>3.7863127187446578E+56</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3">
       <c r="B108">
         <v>106</v>
       </c>
@@ -1437,7 +1496,7 @@
         <v>8.9781745383378188E+56</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3">
       <c r="B109">
         <v>107</v>
       </c>
@@ -1446,7 +1505,7 @@
         <v>1.6398657163603161E+58</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3">
       <c r="B110">
         <v>108</v>
       </c>
@@ -1455,7 +1514,7 @@
         <v>4.0892177362442307E+58</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3">
       <c r="B111">
         <v>109</v>
       </c>
@@ -1464,7 +1523,7 @@
         <v>9.7862102467882223E+58</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3">
       <c r="B112">
         <v>110</v>
       </c>
@@ -1473,7 +1532,7 @@
         <v>1.8038522879963476E+60</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3">
       <c r="B113">
         <v>111</v>
       </c>
@@ -1482,7 +1541,7 @@
         <v>4.5390316872310958E+60</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3">
       <c r="B114">
         <v>112</v>
       </c>
@@ -1491,7 +1550,7 @@
         <v>1.0960555476402809E+61</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3">
       <c r="B115">
         <v>113</v>
       </c>
@@ -1500,7 +1559,7 @@
         <v>2.0383530854358729E+62</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3">
       <c r="B116">
         <v>114</v>
       </c>
@@ -1509,7 +1568,7 @@
         <v>5.1744961234434491E+62</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3">
       <c r="B117">
         <v>115</v>
       </c>
@@ -1518,7 +1577,7 @@
         <v>1.2604638797863231E+63</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3">
       <c r="B118">
         <v>116</v>
       </c>
@@ -1527,7 +1586,7 @@
         <v>2.3644895791056126E+64</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3">
       <c r="B119">
         <v>117</v>
       </c>
@@ -1536,7 +1595,7 @@
         <v>6.0541604644288354E+64</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3">
       <c r="B120">
         <v>118</v>
       </c>
@@ -1545,7 +1604,7 @@
         <v>1.4873473781478612E+65</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3">
       <c r="B121">
         <v>119</v>
       </c>
@@ -1554,7 +1613,7 @@
         <v>2.8137425991356789E+66</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3">
       <c r="B122">
         <v>120</v>
       </c>
@@ -1563,7 +1622,7 @@
         <v>7.264992557314603E+66</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3">
       <c r="B123">
         <v>121</v>
       </c>
@@ -1572,7 +1631,7 @@
         <v>1.799690327558912E+67</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3">
       <c r="B124">
         <v>122</v>
       </c>
@@ -1581,7 +1640,7 @@
         <v>3.4327659709455284E+68</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3">
       <c r="B125">
         <v>123</v>
       </c>
@@ -1590,7 +1649,7 @@
         <v>8.9359408454969618E+68</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3">
       <c r="B126">
         <v>124</v>
       </c>
@@ -1599,7 +1658,7 @@
         <v>2.231616006173051E+69</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3">
       <c r="B127">
         <v>125</v>
       </c>
@@ -1608,7 +1667,7 @@
         <v>4.2909574636819106E+70</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3">
       <c r="B128">
         <v>126</v>
       </c>
@@ -1617,7 +1676,7 @@
         <v>1.1259285465326171E+71</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3">
       <c r="B129">
         <v>127</v>
       </c>
@@ -1626,7 +1685,7 @@
         <v>2.8341523278397749E+71</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3">
       <c r="B130">
         <v>128</v>
       </c>
@@ -1635,7 +1694,7 @@
         <v>5.4924255535128456E+72</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3">
       <c r="B131">
         <v>129</v>
       </c>
@@ -1644,7 +1703,7 @@
         <v>1.4524478250270762E+73</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3">
       <c r="B132">
         <v>130</v>
       </c>
@@ -1653,7 +1712,7 @@
         <v>3.6843980261917073E+73</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3">
       <c r="B133">
         <v>131</v>
       </c>
@@ -1662,7 +1721,7 @@
         <v>7.1950774751018279E+74</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3">
       <c r="B134">
         <v>132</v>
       </c>
@@ -1671,7 +1730,7 @@
         <v>1.9172311290357406E+75</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3">
       <c r="B135">
         <v>133</v>
       </c>
@@ -1680,7 +1739,7 @@
         <v>4.9002493748349705E+75</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3">
       <c r="B136">
         <v>134</v>
       </c>
@@ -1689,7 +1748,7 @@
         <v>9.641403816636449E+76</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3">
       <c r="B137">
         <v>135</v>
       </c>
@@ -1698,7 +1757,7 @@
         <v>2.58826202419825E+77</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3">
       <c r="B138">
         <v>136</v>
       </c>
@@ -1707,7 +1766,7 @@
         <v>6.6643391497755598E+77</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3">
       <c r="B139">
         <v>137</v>
       </c>
@@ -1716,7 +1775,7 @@
         <v>1.3208723228791935E+79</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3">
       <c r="B140">
         <v>138</v>
       </c>
@@ -1725,7 +1784,7 @@
         <v>3.571801593393585E+79</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3">
       <c r="B141">
         <v>139</v>
       </c>
@@ -1734,7 +1793,7 @@
         <v>9.2634314181880279E+79</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3">
       <c r="B142">
         <v>140</v>
       </c>
@@ -1743,7 +1802,7 @@
         <v>1.849221252030871E+81</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3">
       <c r="B143">
         <v>141</v>
       </c>
@@ -1752,7 +1811,7 @@
         <v>5.0362402466849551E+81</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3">
       <c r="B144">
         <v>142</v>
       </c>
@@ -1761,7 +1820,7 @@
         <v>1.3154072613827E+82</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3">
       <c r="B145">
         <v>143</v>
       </c>
@@ -1770,7 +1829,7 @@
         <v>2.6443863904041457E+83</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3">
       <c r="B146">
         <v>144</v>
       </c>
@@ -1779,7 +1838,7 @@
         <v>7.2521859552263355E+83</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3">
       <c r="B147">
         <v>145</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>1.9073405290049151E+84</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3">
       <c r="B148">
         <v>146</v>
       </c>
@@ -1797,7 +1856,7 @@
         <v>3.8608041299900527E+85</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3">
       <c r="B149">
         <v>147</v>
       </c>
@@ -1806,7 +1865,7 @@
         <v>1.0660713354182713E+86</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3">
       <c r="B150">
         <v>148</v>
       </c>
@@ -1815,7 +1874,7 @@
         <v>2.8228639829272745E+86</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3">
       <c r="B151">
         <v>149</v>
       </c>
@@ -1824,7 +1883,7 @@
         <v>5.752598153685179E+87</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3">
       <c r="B152">
         <v>150</v>
       </c>
@@ -1833,7 +1892,7 @@
         <v>1.5991070031274069E+88</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3">
       <c r="B153">
         <v>151</v>
       </c>
@@ -1842,7 +1901,7 @@
         <v>4.2625246142201842E+88</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3">
       <c r="B154">
         <v>152</v>
       </c>
@@ -1851,7 +1910,7 @@
         <v>8.7439491936014725E+89</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3">
       <c r="B155">
         <v>153</v>
       </c>
@@ -1860,7 +1919,7 @@
         <v>2.4466337147849324E+90</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3">
       <c r="B156">
         <v>154</v>
       </c>
@@ -1869,7 +1928,7 @@
         <v>6.564287905899084E+90</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3">
       <c r="B157">
         <v>155</v>
       </c>
@@ -1878,7 +1937,7 @@
         <v>1.3553121250082283E+92</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3">
       <c r="B158">
         <v>156</v>
       </c>
@@ -1887,7 +1946,7 @@
         <v>3.8167485950644943E+92</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3">
       <c r="B159">
         <v>157</v>
       </c>
@@ -1896,7 +1955,7 @@
         <v>1.0305932012261561E+93</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3">
       <c r="B160">
         <v>158</v>
       </c>
@@ -1905,7 +1964,7 @@
         <v>2.1413931575130008E+94</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3">
       <c r="B161">
         <v>159</v>
       </c>
@@ -1914,7 +1973,7 @@
         <v>6.0686302661525462E+94</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3">
       <c r="B162">
         <v>160</v>
       </c>
@@ -1923,7 +1982,7 @@
         <v>1.6489491219618498E+95</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3">
       <c r="B163">
         <v>161</v>
       </c>
@@ -1932,7 +1991,7 @@
         <v>3.4476429835959312E+96</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3">
       <c r="B164">
         <v>162</v>
       </c>
@@ -1941,7 +2000,7 @@
         <v>9.831181031167125E+96</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3">
       <c r="B165">
         <v>163</v>
       </c>
@@ -1950,7 +2009,7 @@
         <v>2.6877870687978152E+97</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3">
       <c r="B166">
         <v>164</v>
       </c>
@@ -1959,7 +2018,7 @@
         <v>5.6541344930973271E+98</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3">
       <c r="B167">
         <v>165</v>
       </c>
@@ -1968,7 +2027,7 @@
         <v>1.6221448701425756E+99</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3">
       <c r="B168">
         <v>166</v>
       </c>
@@ -1977,7 +2036,7 @@
         <v>4.4617265342043729E+99</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3">
       <c r="B169">
         <v>167</v>
       </c>
@@ -1986,7 +2045,7 @@
         <v>9.4424046034725354E+100</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3">
       <c r="B170">
         <v>168</v>
       </c>
@@ -1995,7 +2054,7 @@
         <v>2.7252033818395268E+101</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3">
       <c r="B171">
         <v>169</v>
       </c>
@@ -2004,7 +2063,7 @@
         <v>7.5403178428053898E+101</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3">
       <c r="B172">
         <v>170</v>
       </c>
@@ -2013,7 +2072,7 @@
         <v>1.605208782590331E+103</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3">
       <c r="B173">
         <v>171</v>
       </c>
@@ -2022,7 +2081,7 @@
         <v>4.6600977829455912E+103</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3">
       <c r="B174">
         <v>172</v>
       </c>
@@ -2031,7 +2090,7 @@
         <v>1.296934668962527E+104</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3">
       <c r="B175">
         <v>173</v>
       </c>
@@ -2040,7 +2099,7 @@
         <v>2.7770111938812724E+105</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3">
       <c r="B176">
         <v>174</v>
       </c>
@@ -2049,7 +2108,7 @@
         <v>8.1085701423253292E+105</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3">
       <c r="B177">
         <v>175</v>
       </c>
@@ -2058,7 +2117,7 @@
         <v>2.2696356706844222E+106</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3">
       <c r="B178">
         <v>176</v>
       </c>
@@ -2067,7 +2126,7 @@
         <v>4.8875397012310396E+107</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3">
       <c r="B179">
         <v>177</v>
       </c>
@@ -2076,7 +2135,7 @@
         <v>1.4352169151915833E+108</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3">
       <c r="B180">
         <v>178</v>
       </c>
@@ -2085,7 +2144,7 @@
         <v>4.0399514938182716E+108</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3">
       <c r="B181">
         <v>179</v>
       </c>
@@ -2094,7 +2153,7 @@
         <v>8.7486960652035612E+109</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3">
       <c r="B182">
         <v>180</v>
       </c>
@@ -2103,7 +2162,7 @@
         <v>2.5833904473448499E+110</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3">
       <c r="B183">
         <v>181</v>
       </c>
@@ -2112,7 +2171,7 @@
         <v>7.3123122038110718E+110</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3">
       <c r="B184">
         <v>182</v>
       </c>
@@ -2121,7 +2180,7 @@
         <v>1.5922626838670481E+112</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3">
       <c r="B185">
         <v>183</v>
       </c>
@@ -2130,7 +2189,7 @@
         <v>4.7276045186410756E+112</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3">
       <c r="B186">
         <v>184</v>
       </c>
@@ -2139,7 +2198,7 @@
         <v>1.3454654455012373E+113</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3">
       <c r="B187">
         <v>185</v>
       </c>
@@ -2148,7 +2207,7 @@
         <v>2.9456859651540392E+114</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3">
       <c r="B188">
         <v>186</v>
       </c>
@@ -2157,7 +2216,7 @@
         <v>8.7933444046724004E+114</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3">
       <c r="B189">
         <v>187</v>
       </c>
@@ -2166,7 +2225,7 @@
         <v>2.5160203830873139E+115</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3">
       <c r="B190">
         <v>188</v>
       </c>
@@ -2175,7 +2234,7 @@
         <v>5.5378896144895935E+116</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3">
       <c r="B191">
         <v>189</v>
       </c>
@@ -2184,7 +2243,7 @@
         <v>1.6619420924830836E+117</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3">
       <c r="B192">
         <v>190</v>
       </c>
@@ -2193,7 +2252,7 @@
         <v>4.7804387278658966E+117</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6">
       <c r="B193">
         <v>191</v>
       </c>
@@ -2202,7 +2261,7 @@
         <v>1.0577369163675124E+119</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6">
       <c r="B194">
         <v>192</v>
       </c>
@@ -2211,7 +2270,7 @@
         <v>3.1909288175675205E+119</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6">
       <c r="B195">
         <v>193</v>
       </c>
@@ -2220,7 +2279,7 @@
         <v>9.2262467447811808E+119</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6">
       <c r="B196">
         <v>194</v>
       </c>
@@ -2229,7 +2288,7 @@
         <v>2.052009617752974E+121</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6">
       <c r="B197">
         <v>195</v>
       </c>
@@ -2242,16 +2301,16 @@
         <v>2586.1224999999999</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6">
       <c r="B198">
         <v>196</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C197:C202" si="6">B198*C195+E195</f>
+        <f t="shared" ref="C198:C202" si="6">B198*C195+E195</f>
         <v>1.8083443619771115E+122</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6">
       <c r="B199">
         <v>197</v>
       </c>
@@ -2260,7 +2319,7 @@
         <v>4.0424589469733587E+123</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6">
       <c r="B200">
         <v>198</v>
       </c>
@@ -2269,7 +2328,7 @@
         <v>512052.255</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6">
       <c r="B201">
         <v>199</v>
       </c>
@@ -2278,7 +2337,7 @@
         <v>3.5986052803344521E+124</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6">
       <c r="B202">
         <v>200</v>
       </c>
@@ -2291,4 +2350,161 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C13D47-050F-4097-83B9-EDF16E44717B}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3.9276</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-1.1798999999999999</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>9.6974</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>B16*B11+B12</f>
+        <v>2.7477</v>
+      </c>
+      <c r="D16">
+        <f>1/(1+EXP(-C16))</f>
+        <v>0.93978332295935407</v>
+      </c>
+      <c r="E16">
+        <f>D16*B13</f>
+        <v>9.1134547960660406</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <f>B17*B11+B12</f>
+        <v>45.951300000000003</v>
+      </c>
+      <c r="D17">
+        <f>1/(1+EXP(-C17))</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>D17*B13</f>
+        <v>9.6974</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f>B18*B11+B12</f>
+        <v>77.372099999999989</v>
+      </c>
+      <c r="D18">
+        <f>1/(1+EXP(-C18))</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>D18*B13</f>
+        <v>9.6974</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>